--- a/data/pca/factorExposure/factorExposure_2009-03-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01742351977296689</v>
+        <v>0.01695671748862183</v>
       </c>
       <c r="C2">
-        <v>-0.002323636496611356</v>
+        <v>-0.001687596996589603</v>
       </c>
       <c r="D2">
-        <v>0.008438853186419727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009129149336598094</v>
+      </c>
+      <c r="E2">
+        <v>-0.01843485508101239</v>
+      </c>
+      <c r="F2">
+        <v>0.007910412885452044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08301196911000193</v>
+        <v>0.08670776729005372</v>
       </c>
       <c r="C4">
-        <v>-0.01989504583170206</v>
+        <v>-0.01583305329362663</v>
       </c>
       <c r="D4">
-        <v>0.08509078939338101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08800377675710339</v>
+      </c>
+      <c r="E4">
+        <v>0.04874048554876403</v>
+      </c>
+      <c r="F4">
+        <v>-0.01654350800065917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0008908030441995179</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.0001538302498701244</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.00119684701758686</v>
+      </c>
+      <c r="E5">
+        <v>7.377878051535491e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.00195654305051223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1615844329567521</v>
+        <v>0.167284238354087</v>
       </c>
       <c r="C6">
-        <v>-0.0387516931248035</v>
+        <v>-0.035968797389268</v>
       </c>
       <c r="D6">
-        <v>-0.01874804159231342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.00963397331608323</v>
+      </c>
+      <c r="E6">
+        <v>0.06298797505799672</v>
+      </c>
+      <c r="F6">
+        <v>-0.01019636827405244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05519322763861802</v>
+        <v>0.05994599565276802</v>
       </c>
       <c r="C7">
-        <v>-0.001838231827786481</v>
+        <v>0.001047367316153484</v>
       </c>
       <c r="D7">
-        <v>0.05211571977945982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05636248076532538</v>
+      </c>
+      <c r="E7">
+        <v>0.02728515560574475</v>
+      </c>
+      <c r="F7">
+        <v>-0.05633040154064289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05814213360146839</v>
+        <v>0.05494117525588156</v>
       </c>
       <c r="C8">
-        <v>0.009241786800806727</v>
+        <v>0.01097242233790318</v>
       </c>
       <c r="D8">
-        <v>0.03392928319292696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03547675148421721</v>
+      </c>
+      <c r="E8">
+        <v>-0.02402888484809231</v>
+      </c>
+      <c r="F8">
+        <v>0.02111411223577035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06359738955315598</v>
+        <v>0.06733167662597933</v>
       </c>
       <c r="C9">
-        <v>-0.01529712156862839</v>
+        <v>-0.01135355551302278</v>
       </c>
       <c r="D9">
-        <v>0.08842888758326743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.09090181534206068</v>
+      </c>
+      <c r="E9">
+        <v>0.06359734091383662</v>
+      </c>
+      <c r="F9">
+        <v>-0.02457665351914304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09750585737927316</v>
+        <v>0.09368799496229943</v>
       </c>
       <c r="C10">
-        <v>-0.02508988516148619</v>
+        <v>-0.0259331660960088</v>
       </c>
       <c r="D10">
-        <v>-0.160980767436606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.151573147710446</v>
+      </c>
+      <c r="E10">
+        <v>-0.08963547788043706</v>
+      </c>
+      <c r="F10">
+        <v>0.01486218161287516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08539186918846346</v>
+        <v>0.08329144125807156</v>
       </c>
       <c r="C11">
-        <v>-0.01752501204524992</v>
+        <v>-0.01248207521335818</v>
       </c>
       <c r="D11">
-        <v>0.1360315778402158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.13546417440245</v>
+      </c>
+      <c r="E11">
+        <v>0.03314340734144652</v>
+      </c>
+      <c r="F11">
+        <v>0.006486222459127828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0898040425274057</v>
+        <v>0.08561455695499399</v>
       </c>
       <c r="C12">
-        <v>-0.01521099115089549</v>
+        <v>-0.009654393741014188</v>
       </c>
       <c r="D12">
-        <v>0.1432258481679537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1500163038421234</v>
+      </c>
+      <c r="E12">
+        <v>0.0302142922737161</v>
+      </c>
+      <c r="F12">
+        <v>-0.005819144559375763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04174825544566216</v>
+        <v>0.04266869606519465</v>
       </c>
       <c r="C13">
-        <v>-0.007680907133665868</v>
+        <v>-0.003918971492080417</v>
       </c>
       <c r="D13">
-        <v>0.0504191299260249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05774203962609463</v>
+      </c>
+      <c r="E13">
+        <v>0.0003622731449577377</v>
+      </c>
+      <c r="F13">
+        <v>-0.0188240064681961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01983605062658393</v>
+        <v>0.0225970431992129</v>
       </c>
       <c r="C14">
-        <v>-0.01518060775308491</v>
+        <v>-0.01421539820666709</v>
       </c>
       <c r="D14">
-        <v>0.04075619627619902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04144293593298847</v>
+      </c>
+      <c r="E14">
+        <v>0.02654320802205957</v>
+      </c>
+      <c r="F14">
+        <v>-0.003496362766010917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03218125068541754</v>
+        <v>0.03350955013271081</v>
       </c>
       <c r="C15">
-        <v>-0.008236655895502053</v>
+        <v>-0.006639562667139277</v>
       </c>
       <c r="D15">
-        <v>0.05464946432332716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05310560329034981</v>
+      </c>
+      <c r="E15">
+        <v>0.02342492271009787</v>
+      </c>
+      <c r="F15">
+        <v>-0.01543605843621937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06630268051286048</v>
+        <v>0.06607119916238513</v>
       </c>
       <c r="C16">
-        <v>-0.006008753517390585</v>
+        <v>-0.001162645399348901</v>
       </c>
       <c r="D16">
-        <v>0.1377188632855733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1435924214174835</v>
+      </c>
+      <c r="E16">
+        <v>0.04206167904927131</v>
+      </c>
+      <c r="F16">
+        <v>0.01170902053808287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002753046164015934</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.001106877885340391</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002738146702728033</v>
+      </c>
+      <c r="E17">
+        <v>0.0002790901877179534</v>
+      </c>
+      <c r="F17">
+        <v>0.007363782285404674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.03086633453865989</v>
+        <v>0.04744202429685988</v>
       </c>
       <c r="C18">
-        <v>-8.828779613708322e-05</v>
+        <v>-0.0005197642993411046</v>
       </c>
       <c r="D18">
-        <v>0.02982476120217505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02771614594158215</v>
+      </c>
+      <c r="E18">
+        <v>-0.0176995111630725</v>
+      </c>
+      <c r="F18">
+        <v>-0.002120813542842978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06198557954996738</v>
+        <v>0.06146621046132884</v>
       </c>
       <c r="C20">
-        <v>-0.005416824171335826</v>
+        <v>-0.00249945878911789</v>
       </c>
       <c r="D20">
-        <v>0.09446066101930077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0949168825570985</v>
+      </c>
+      <c r="E20">
+        <v>0.05963060467764517</v>
+      </c>
+      <c r="F20">
+        <v>0.004501196734340795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04114245727256224</v>
+        <v>0.04326795609073669</v>
       </c>
       <c r="C21">
-        <v>-0.01062781418981145</v>
+        <v>-0.008177253223091411</v>
       </c>
       <c r="D21">
-        <v>0.04758650800768289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04734858149997626</v>
+      </c>
+      <c r="E21">
+        <v>-0.02012201052807693</v>
+      </c>
+      <c r="F21">
+        <v>-0.007351708392310508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0458293547574562</v>
+        <v>0.0445851605536497</v>
       </c>
       <c r="C22">
-        <v>-0.005014051089307083</v>
+        <v>-0.00272766522809592</v>
       </c>
       <c r="D22">
-        <v>0.009259042003308604</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01775455305550754</v>
+      </c>
+      <c r="E22">
+        <v>-0.03752828952258152</v>
+      </c>
+      <c r="F22">
+        <v>0.1274213163664924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04583838155500136</v>
+        <v>0.04459282315604993</v>
       </c>
       <c r="C23">
-        <v>-0.005016605830578933</v>
+        <v>-0.002729974637453728</v>
       </c>
       <c r="D23">
-        <v>0.009251348419382644</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01774860538588142</v>
+      </c>
+      <c r="E23">
+        <v>-0.03754939868022403</v>
+      </c>
+      <c r="F23">
+        <v>0.1274617880835622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07332625412489829</v>
+        <v>0.07191315435857269</v>
       </c>
       <c r="C24">
-        <v>-0.006753258860613827</v>
+        <v>-0.00221215802657257</v>
       </c>
       <c r="D24">
-        <v>0.136113986106028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1346977810951419</v>
+      </c>
+      <c r="E24">
+        <v>0.03641561510952919</v>
+      </c>
+      <c r="F24">
+        <v>-0.005703282588586307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0795677362913676</v>
+        <v>0.07743493495982413</v>
       </c>
       <c r="C25">
-        <v>-0.009756751592922365</v>
+        <v>-0.005371865709146245</v>
       </c>
       <c r="D25">
-        <v>0.1264308929303391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1247013298760361</v>
+      </c>
+      <c r="E25">
+        <v>0.02024621057402395</v>
+      </c>
+      <c r="F25">
+        <v>-0.02111180520997974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05701324004902029</v>
+        <v>0.06206762107429888</v>
       </c>
       <c r="C26">
-        <v>-0.01924454283708047</v>
+        <v>-0.01654634908872463</v>
       </c>
       <c r="D26">
-        <v>0.06549898501126471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06638312352812384</v>
+      </c>
+      <c r="E26">
+        <v>0.0009173467875816246</v>
+      </c>
+      <c r="F26">
+        <v>0.008485135544979056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1567593752897956</v>
+        <v>0.1607451993554032</v>
       </c>
       <c r="C28">
-        <v>-0.03081795732267521</v>
+        <v>-0.03312894593341457</v>
       </c>
       <c r="D28">
-        <v>-0.2491425477648184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2463131972572145</v>
+      </c>
+      <c r="E28">
+        <v>-0.02663140749253604</v>
+      </c>
+      <c r="F28">
+        <v>-0.04463569646629449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02613108486671483</v>
+        <v>0.02812489751541823</v>
       </c>
       <c r="C29">
-        <v>-0.01005523990973531</v>
+        <v>-0.009549394303449893</v>
       </c>
       <c r="D29">
-        <v>0.03893318490640153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03838736991403948</v>
+      </c>
+      <c r="E29">
+        <v>-0.006418508153898952</v>
+      </c>
+      <c r="F29">
+        <v>0.02133200309907538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.047106759449171</v>
+        <v>0.04715260087575744</v>
       </c>
       <c r="C30">
-        <v>-0.005091297060386519</v>
+        <v>-0.001707105539543066</v>
       </c>
       <c r="D30">
-        <v>0.07515994412398837</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07939736336276011</v>
+      </c>
+      <c r="E30">
+        <v>0.07955282719297642</v>
+      </c>
+      <c r="F30">
+        <v>-0.07199181976655605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0519060395071665</v>
+        <v>0.05250562385323231</v>
       </c>
       <c r="C31">
-        <v>-0.0198186078763843</v>
+        <v>-0.01748056065929898</v>
       </c>
       <c r="D31">
-        <v>0.03290671600726756</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03588523876884485</v>
+      </c>
+      <c r="E31">
+        <v>0.01120766098807524</v>
+      </c>
+      <c r="F31">
+        <v>0.03112657377957284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04403707874021188</v>
+        <v>0.04946570981279709</v>
       </c>
       <c r="C32">
-        <v>-0.001602100218366397</v>
+        <v>0.001024576334843671</v>
       </c>
       <c r="D32">
-        <v>0.03514531404967833</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03788927973584204</v>
+      </c>
+      <c r="E32">
+        <v>0.01054529421632461</v>
+      </c>
+      <c r="F32">
+        <v>0.02024007127413232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0838601937340915</v>
+        <v>0.08613337357371441</v>
       </c>
       <c r="C33">
-        <v>-0.01370941819387777</v>
+        <v>-0.008550644150187265</v>
       </c>
       <c r="D33">
-        <v>0.1046715364058734</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1125816619615218</v>
+      </c>
+      <c r="E33">
+        <v>0.04319289605498677</v>
+      </c>
+      <c r="F33">
+        <v>0.01076602696085384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06043518150694104</v>
+        <v>0.06097873120856208</v>
       </c>
       <c r="C34">
-        <v>-0.01487497247632448</v>
+        <v>-0.01015706719516565</v>
       </c>
       <c r="D34">
-        <v>0.1124893932506475</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1201650776699036</v>
+      </c>
+      <c r="E34">
+        <v>0.03337969745369022</v>
+      </c>
+      <c r="F34">
+        <v>-0.02713866711315161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02684081034193916</v>
+        <v>0.0281743268314782</v>
       </c>
       <c r="C35">
-        <v>-0.005255058475401114</v>
+        <v>-0.004600613547175699</v>
       </c>
       <c r="D35">
-        <v>0.01146145978823532</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01447659289957058</v>
+      </c>
+      <c r="E35">
+        <v>0.009760792916720154</v>
+      </c>
+      <c r="F35">
+        <v>0.01741121543305503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02315636426218268</v>
+        <v>0.02758483965369928</v>
       </c>
       <c r="C36">
-        <v>-0.009083652129553916</v>
+        <v>-0.007971276134313088</v>
       </c>
       <c r="D36">
-        <v>0.0463373072757199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04906013984758471</v>
+      </c>
+      <c r="E36">
+        <v>0.03707063629742192</v>
+      </c>
+      <c r="F36">
+        <v>0.01164410924926262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003415087300959599</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008278449414573911</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003666512742066954</v>
+      </c>
+      <c r="E37">
+        <v>-0.001583151131648905</v>
+      </c>
+      <c r="F37">
+        <v>0.0001215992968095317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09583701816675926</v>
+        <v>0.08835005127790012</v>
       </c>
       <c r="C39">
-        <v>-0.02100214031087333</v>
+        <v>-0.01522805974508286</v>
       </c>
       <c r="D39">
-        <v>0.1682952115615299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1615123324100187</v>
+      </c>
+      <c r="E39">
+        <v>0.02302172279474421</v>
+      </c>
+      <c r="F39">
+        <v>0.01197586772162437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04386654033186969</v>
+        <v>0.04939422738418501</v>
       </c>
       <c r="C40">
-        <v>-0.01236685109212825</v>
+        <v>-0.0107566095438429</v>
       </c>
       <c r="D40">
-        <v>0.04327590057995972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04674162297589983</v>
+      </c>
+      <c r="E40">
+        <v>-0.0231413281772625</v>
+      </c>
+      <c r="F40">
+        <v>-0.002784033859589483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0272949039907926</v>
+        <v>0.02929274981914426</v>
       </c>
       <c r="C41">
-        <v>-0.008793467465940679</v>
+        <v>-0.008161731090948407</v>
       </c>
       <c r="D41">
-        <v>0.01976461775961334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02027698739411639</v>
+      </c>
+      <c r="E41">
+        <v>-0.008982087989018018</v>
+      </c>
+      <c r="F41">
+        <v>0.004316055633880201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04193122206102125</v>
+        <v>0.0408074365893046</v>
       </c>
       <c r="C43">
-        <v>-0.009744331088431505</v>
+        <v>-0.008628260780763748</v>
       </c>
       <c r="D43">
-        <v>0.03364588781994615</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03152353994676446</v>
+      </c>
+      <c r="E43">
+        <v>-0.007602452897118323</v>
+      </c>
+      <c r="F43">
+        <v>0.0235135076990958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05758817681970278</v>
+        <v>0.06616638199267541</v>
       </c>
       <c r="C44">
-        <v>-0.02145731193853795</v>
+        <v>-0.01857189330854857</v>
       </c>
       <c r="D44">
-        <v>0.07628543193501647</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08598500721598361</v>
+      </c>
+      <c r="E44">
+        <v>0.2176697311745958</v>
+      </c>
+      <c r="F44">
+        <v>-0.08137040011942732</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0002268547404295866</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-4.292493314771696e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-3.283176087986659e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0004189471694328021</v>
+      </c>
+      <c r="F45">
+        <v>-0.0002713698827852048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02425249586690372</v>
+        <v>0.02635487076809906</v>
       </c>
       <c r="C46">
-        <v>-0.005176506191735272</v>
+        <v>-0.004418537399740186</v>
       </c>
       <c r="D46">
-        <v>0.02639171344500874</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02625303714360654</v>
+      </c>
+      <c r="E46">
+        <v>-0.003528135391884196</v>
+      </c>
+      <c r="F46">
+        <v>0.03108406834709429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05457029988105537</v>
+        <v>0.0534347818150273</v>
       </c>
       <c r="C47">
-        <v>-0.007916391689786955</v>
+        <v>-0.005944385277501611</v>
       </c>
       <c r="D47">
-        <v>0.02213556695222993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02290423285394486</v>
+      </c>
+      <c r="E47">
+        <v>-0.01128378241805131</v>
+      </c>
+      <c r="F47">
+        <v>0.05343206619341304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04854941902669713</v>
+        <v>0.05261930232046719</v>
       </c>
       <c r="C48">
-        <v>-0.006659047542816476</v>
+        <v>-0.004259778279633085</v>
       </c>
       <c r="D48">
-        <v>0.06488982252954972</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06320045287457655</v>
+      </c>
+      <c r="E48">
+        <v>0.003068573434827706</v>
+      </c>
+      <c r="F48">
+        <v>-0.02163071471516327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.195099301735785</v>
+        <v>0.1974156890964027</v>
       </c>
       <c r="C49">
-        <v>-0.0302854150772155</v>
+        <v>-0.02550305046389972</v>
       </c>
       <c r="D49">
-        <v>-0.006285343414573454</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.002110538431682065</v>
+      </c>
+      <c r="E49">
+        <v>0.04463777591304154</v>
+      </c>
+      <c r="F49">
+        <v>-0.04215674804970598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04976938515892677</v>
+        <v>0.05266210840239408</v>
       </c>
       <c r="C50">
-        <v>-0.01516624170706372</v>
+        <v>-0.01339095350244533</v>
       </c>
       <c r="D50">
-        <v>0.03240718825799524</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03405390817105162</v>
+      </c>
+      <c r="E50">
+        <v>0.0221080879593198</v>
+      </c>
+      <c r="F50">
+        <v>0.01824190738853571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1470690254424917</v>
+        <v>0.1410508940934686</v>
       </c>
       <c r="C52">
-        <v>-0.0257060530500609</v>
+        <v>-0.02142942389606129</v>
       </c>
       <c r="D52">
-        <v>0.04186199958102995</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04333190660725104</v>
+      </c>
+      <c r="E52">
+        <v>0.0598481281494782</v>
+      </c>
+      <c r="F52">
+        <v>0.01809206158203994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1761977545158636</v>
+        <v>0.1681356118584639</v>
       </c>
       <c r="C53">
-        <v>-0.03064713240148621</v>
+        <v>-0.02676826839012747</v>
       </c>
       <c r="D53">
-        <v>0.01563101252139891</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01624532089187587</v>
+      </c>
+      <c r="E53">
+        <v>0.1189447192939436</v>
+      </c>
+      <c r="F53">
+        <v>0.005746429222487155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01367412381618963</v>
+        <v>0.01697006260377677</v>
       </c>
       <c r="C54">
-        <v>-0.01169962122814157</v>
+        <v>-0.01117822473314513</v>
       </c>
       <c r="D54">
-        <v>0.03312279205907803</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03189158477045927</v>
+      </c>
+      <c r="E54">
+        <v>0.004177698755580401</v>
+      </c>
+      <c r="F54">
+        <v>0.01468225637136929</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1199529751712007</v>
+        <v>0.1173320922384754</v>
       </c>
       <c r="C55">
-        <v>-0.02609876720340039</v>
+        <v>-0.0231059093620906</v>
       </c>
       <c r="D55">
-        <v>0.01333965359398141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01970337185378921</v>
+      </c>
+      <c r="E55">
+        <v>0.07064179437195188</v>
+      </c>
+      <c r="F55">
+        <v>0.03990608244568591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1807389959481534</v>
+        <v>0.174695007610659</v>
       </c>
       <c r="C56">
-        <v>-0.02849167612740046</v>
+        <v>-0.02500245136570102</v>
       </c>
       <c r="D56">
-        <v>0.002923368746283954</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004620524574479852</v>
+      </c>
+      <c r="E56">
+        <v>0.07908957593621418</v>
+      </c>
+      <c r="F56">
+        <v>0.03147498033404097</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04640866091893499</v>
+        <v>0.04546347229692761</v>
       </c>
       <c r="C58">
-        <v>-0.00494876261781534</v>
+        <v>-0.0007012494432442383</v>
       </c>
       <c r="D58">
-        <v>0.09210130989300334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.09782991202562372</v>
+      </c>
+      <c r="E58">
+        <v>-0.01711305969199722</v>
+      </c>
+      <c r="F58">
+        <v>0.03786947735980384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1751356670396051</v>
+        <v>0.1793888252768168</v>
       </c>
       <c r="C59">
-        <v>-0.03015771387102157</v>
+        <v>-0.03195834606695953</v>
       </c>
       <c r="D59">
-        <v>-0.209982757636261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.20852043349147</v>
+      </c>
+      <c r="E59">
+        <v>-0.07834858031718975</v>
+      </c>
+      <c r="F59">
+        <v>0.009788518103697555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2211327058856201</v>
+        <v>0.2164223479885634</v>
       </c>
       <c r="C60">
-        <v>-0.009132784906118199</v>
+        <v>-0.003943957831447758</v>
       </c>
       <c r="D60">
-        <v>0.02392468267162797</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02465360313257877</v>
+      </c>
+      <c r="E60">
+        <v>-0.002399317307009025</v>
+      </c>
+      <c r="F60">
+        <v>-0.000642749706784452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07244713589366795</v>
+        <v>0.0687643094917481</v>
       </c>
       <c r="C61">
-        <v>-0.01596450167626311</v>
+        <v>-0.01120130197465533</v>
       </c>
       <c r="D61">
-        <v>0.1227145284815259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1220066263382889</v>
+      </c>
+      <c r="E61">
+        <v>0.007952366913206011</v>
+      </c>
+      <c r="F61">
+        <v>0.01615195910150577</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1702784283607299</v>
+        <v>0.1660289882415759</v>
       </c>
       <c r="C62">
-        <v>-0.03069121950608851</v>
+        <v>-0.02694701222816413</v>
       </c>
       <c r="D62">
-        <v>0.009872448399654869</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.01316927947001469</v>
+      </c>
+      <c r="E62">
+        <v>0.07247818201520387</v>
+      </c>
+      <c r="F62">
+        <v>0.03958213714996138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04107180178388678</v>
+        <v>0.04682524216716555</v>
       </c>
       <c r="C63">
-        <v>-0.005866317430145333</v>
+        <v>-0.003531872151151767</v>
       </c>
       <c r="D63">
-        <v>0.07026290074450983</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07498789467029661</v>
+      </c>
+      <c r="E63">
+        <v>0.01048685564392214</v>
+      </c>
+      <c r="F63">
+        <v>0.02000405243545082</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1145587914596856</v>
+        <v>0.1115493021014837</v>
       </c>
       <c r="C64">
-        <v>-0.02060635408083456</v>
+        <v>-0.0163279958621339</v>
       </c>
       <c r="D64">
-        <v>0.05576055042804106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05763993515722499</v>
+      </c>
+      <c r="E64">
+        <v>0.03439364971163324</v>
+      </c>
+      <c r="F64">
+        <v>-0.001553328594613168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1503913534811339</v>
+        <v>0.1562327384008964</v>
       </c>
       <c r="C65">
-        <v>-0.04442085108495834</v>
+        <v>-0.04240820374987076</v>
       </c>
       <c r="D65">
-        <v>-0.04905625732573402</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03718792710952028</v>
+      </c>
+      <c r="E65">
+        <v>0.07112910545872655</v>
+      </c>
+      <c r="F65">
+        <v>0.003962132693976972</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1168196320002855</v>
+        <v>0.1072555016055989</v>
       </c>
       <c r="C66">
-        <v>-0.01978393384723574</v>
+        <v>-0.01337894562322076</v>
       </c>
       <c r="D66">
-        <v>0.1497954744928577</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1475839359550854</v>
+      </c>
+      <c r="E66">
+        <v>0.0251312346874308</v>
+      </c>
+      <c r="F66">
+        <v>0.009841150299575507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05880992952568342</v>
+        <v>0.05163281257407902</v>
       </c>
       <c r="C67">
-        <v>-0.006272997251667448</v>
+        <v>-0.003963172120514452</v>
       </c>
       <c r="D67">
-        <v>0.06102062113090687</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.06212924083346034</v>
+      </c>
+      <c r="E67">
+        <v>-0.0469277015974966</v>
+      </c>
+      <c r="F67">
+        <v>0.07505475821523643</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1259614535965318</v>
+        <v>0.1312493968458967</v>
       </c>
       <c r="C68">
-        <v>-0.03837513915338387</v>
+        <v>-0.0421547052766525</v>
       </c>
       <c r="D68">
-        <v>-0.2587376574508268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2558525038866156</v>
+      </c>
+      <c r="E68">
+        <v>-0.03934397488703519</v>
+      </c>
+      <c r="F68">
+        <v>-0.07401212419149313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03936216827097226</v>
+        <v>0.03893308968741902</v>
       </c>
       <c r="C69">
-        <v>-0.003700270298738326</v>
+        <v>-0.002612460377137471</v>
       </c>
       <c r="D69">
-        <v>0.0125281858928558</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01273396103630084</v>
+      </c>
+      <c r="E69">
+        <v>0.01606083490533003</v>
+      </c>
+      <c r="F69">
+        <v>0.05128018395161247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.07207738480395146</v>
+        <v>0.07303457685330651</v>
       </c>
       <c r="C70">
-        <v>0.02120648936541794</v>
+        <v>0.02310285925075653</v>
       </c>
       <c r="D70">
-        <v>0.05253894962907305</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.04807772918745142</v>
+      </c>
+      <c r="E70">
+        <v>-0.3262883285669695</v>
+      </c>
+      <c r="F70">
+        <v>0.1793966493662922</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1463301725122391</v>
+        <v>0.1527094092225306</v>
       </c>
       <c r="C71">
-        <v>-0.04448443413339624</v>
+        <v>-0.04790961494119167</v>
       </c>
       <c r="D71">
-        <v>-0.2706127483538839</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2639917176880645</v>
+      </c>
+      <c r="E71">
+        <v>-0.04539137688300177</v>
+      </c>
+      <c r="F71">
+        <v>-0.08418280970489121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.139371820501005</v>
+        <v>0.1459272956185947</v>
       </c>
       <c r="C72">
-        <v>-0.03479745939123653</v>
+        <v>-0.03304039346548891</v>
       </c>
       <c r="D72">
-        <v>0.01675068046628569</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01193313167479273</v>
+      </c>
+      <c r="E72">
+        <v>0.06528576898078184</v>
+      </c>
+      <c r="F72">
+        <v>0.02828257059125437</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1931024962904443</v>
+        <v>0.1983290337215461</v>
       </c>
       <c r="C73">
-        <v>-0.02293755373454682</v>
+        <v>-0.01697034066738689</v>
       </c>
       <c r="D73">
-        <v>0.01611731837732736</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0225119050439971</v>
+      </c>
+      <c r="E73">
+        <v>0.06469377997931666</v>
+      </c>
+      <c r="F73">
+        <v>0.05040010724601297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08898778848934827</v>
+        <v>0.08875763554925392</v>
       </c>
       <c r="C74">
-        <v>-0.01754168007720956</v>
+        <v>-0.0151120954674475</v>
       </c>
       <c r="D74">
-        <v>0.0202688716268988</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02447093977046499</v>
+      </c>
+      <c r="E74">
+        <v>0.08073048039342419</v>
+      </c>
+      <c r="F74">
+        <v>0.01427577938669742</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1283807675933396</v>
+        <v>0.1207027118043088</v>
       </c>
       <c r="C75">
-        <v>-0.03593522228059977</v>
+        <v>-0.03190523180410529</v>
       </c>
       <c r="D75">
-        <v>0.0351202134714069</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03742486550488217</v>
+      </c>
+      <c r="E75">
+        <v>0.06512535403565271</v>
+      </c>
+      <c r="F75">
+        <v>0.06072823466182912</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07519611821809467</v>
+        <v>0.08992447309038384</v>
       </c>
       <c r="C77">
-        <v>-0.01437856357215596</v>
+        <v>-0.01121019406629504</v>
       </c>
       <c r="D77">
-        <v>0.1217909522166866</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1219569918903518</v>
+      </c>
+      <c r="E77">
+        <v>0.05157721317985445</v>
+      </c>
+      <c r="F77">
+        <v>-0.02153775273282259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09929712680762767</v>
+        <v>0.1011695151722393</v>
       </c>
       <c r="C78">
-        <v>-0.04486832792937801</v>
+        <v>-0.04141568287514529</v>
       </c>
       <c r="D78">
-        <v>0.1546443773585233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1447152010193391</v>
+      </c>
+      <c r="E78">
+        <v>0.0540226493303631</v>
+      </c>
+      <c r="F78">
+        <v>-0.03888209661432283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1683580564343652</v>
+        <v>0.1637572875115749</v>
       </c>
       <c r="C79">
-        <v>-0.0339543123566621</v>
+        <v>-0.02975026968183456</v>
       </c>
       <c r="D79">
-        <v>0.02418876188774301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02657309629749575</v>
+      </c>
+      <c r="E79">
+        <v>0.04240330309368331</v>
+      </c>
+      <c r="F79">
+        <v>0.03839527941318711</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07890558623333824</v>
+        <v>0.07695898037926063</v>
       </c>
       <c r="C80">
-        <v>-0.004748102867435326</v>
+        <v>-0.001954493927868298</v>
       </c>
       <c r="D80">
-        <v>0.05084103769670411</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05251509625411262</v>
+      </c>
+      <c r="E80">
+        <v>-0.02135762582483038</v>
+      </c>
+      <c r="F80">
+        <v>0.0483238318124126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1155659069126888</v>
+        <v>0.1097766440802284</v>
       </c>
       <c r="C81">
-        <v>-0.03723954115121762</v>
+        <v>-0.03490871189434523</v>
       </c>
       <c r="D81">
-        <v>0.007892238882480179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01315795210271044</v>
+      </c>
+      <c r="E81">
+        <v>0.05342374441311952</v>
+      </c>
+      <c r="F81">
+        <v>0.06278345286841486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1612813534633732</v>
+        <v>0.1593531225202302</v>
       </c>
       <c r="C82">
-        <v>-0.0338700527312509</v>
+        <v>-0.03026117539823895</v>
       </c>
       <c r="D82">
-        <v>0.003383369813943745</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003875636702032878</v>
+      </c>
+      <c r="E82">
+        <v>0.106992126780887</v>
+      </c>
+      <c r="F82">
+        <v>0.003361049907514472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05647731966451063</v>
+        <v>0.05209209862966498</v>
       </c>
       <c r="C83">
-        <v>-0.006642506281156415</v>
+        <v>-0.004248475235986944</v>
       </c>
       <c r="D83">
-        <v>0.04929810018279207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04677047652019403</v>
+      </c>
+      <c r="E83">
+        <v>-0.02540568393832768</v>
+      </c>
+      <c r="F83">
+        <v>0.007639438075280233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05390050025387987</v>
+        <v>0.05069731709260476</v>
       </c>
       <c r="C84">
-        <v>-0.01360986187955425</v>
+        <v>-0.01095046229283255</v>
       </c>
       <c r="D84">
-        <v>0.07680143724676992</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07589908783162359</v>
+      </c>
+      <c r="E84">
+        <v>0.006859821362787098</v>
+      </c>
+      <c r="F84">
+        <v>0.004819405849519753</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1390794315747276</v>
+        <v>0.13365203021627</v>
       </c>
       <c r="C85">
-        <v>-0.03700202901571111</v>
+        <v>-0.03359469058935199</v>
       </c>
       <c r="D85">
-        <v>0.01651399848317808</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01859810492869254</v>
+      </c>
+      <c r="E85">
+        <v>0.08400682788092059</v>
+      </c>
+      <c r="F85">
+        <v>0.01575445054475099</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08248118546826062</v>
+        <v>0.08148614257767194</v>
       </c>
       <c r="C86">
-        <v>0.00345329315720535</v>
+        <v>0.006759804275334324</v>
       </c>
       <c r="D86">
-        <v>0.05390773377292965</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07554004438613413</v>
+      </c>
+      <c r="E86">
+        <v>-0.5462618827146242</v>
+      </c>
+      <c r="F86">
+        <v>0.6008482944720318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08812160757570804</v>
+        <v>0.08859252325534793</v>
       </c>
       <c r="C87">
-        <v>-0.02856538665494882</v>
+        <v>-0.02384218460669936</v>
       </c>
       <c r="D87">
-        <v>0.08258511481766326</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08459809628245103</v>
+      </c>
+      <c r="E87">
+        <v>-0.000469656978855709</v>
+      </c>
+      <c r="F87">
+        <v>-0.1109107685788992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06305945717077914</v>
+        <v>0.06185100710041239</v>
       </c>
       <c r="C88">
-        <v>-0.007572279052501113</v>
+        <v>-0.004957077469342731</v>
       </c>
       <c r="D88">
-        <v>0.06713495177533672</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.06332355582433032</v>
+      </c>
+      <c r="E88">
+        <v>0.01539760843108869</v>
+      </c>
+      <c r="F88">
+        <v>0.01034225396943875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1331247574916068</v>
+        <v>0.1376182954919575</v>
       </c>
       <c r="C89">
-        <v>-0.01780560603646312</v>
+        <v>-0.02162072206675675</v>
       </c>
       <c r="D89">
-        <v>-0.2309559647507206</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2348608344427959</v>
+      </c>
+      <c r="E89">
+        <v>-0.04602653119576506</v>
+      </c>
+      <c r="F89">
+        <v>-0.08137772684143933</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.157461305673015</v>
+        <v>0.1674985389935818</v>
       </c>
       <c r="C90">
-        <v>-0.04091083524243675</v>
+        <v>-0.04501457677885513</v>
       </c>
       <c r="D90">
-        <v>-0.2580698219864109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2602162391804332</v>
+      </c>
+      <c r="E90">
+        <v>-0.0752872278300568</v>
+      </c>
+      <c r="F90">
+        <v>-0.1147220690243896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1264813438573486</v>
+        <v>0.1214105232450403</v>
       </c>
       <c r="C91">
-        <v>-0.02802622728573069</v>
+        <v>-0.02571002530878571</v>
       </c>
       <c r="D91">
-        <v>-0.01079374178172345</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.007987754927323815</v>
+      </c>
+      <c r="E91">
+        <v>0.04259879163696918</v>
+      </c>
+      <c r="F91">
+        <v>0.09296740602382765</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1554738887209782</v>
+        <v>0.1586833916365372</v>
       </c>
       <c r="C92">
-        <v>-0.03132737521680071</v>
+        <v>-0.0350868096989902</v>
       </c>
       <c r="D92">
-        <v>-0.2894978005227249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2933059096025493</v>
+      </c>
+      <c r="E92">
+        <v>-0.05889728058247892</v>
+      </c>
+      <c r="F92">
+        <v>-0.07294008437541674</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1621841223899078</v>
+        <v>0.1706294889824183</v>
       </c>
       <c r="C93">
-        <v>-0.03704311736075359</v>
+        <v>-0.03993356223821705</v>
       </c>
       <c r="D93">
-        <v>-0.2484334486905548</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2516035977394626</v>
+      </c>
+      <c r="E93">
+        <v>-0.03085449071476326</v>
+      </c>
+      <c r="F93">
+        <v>-0.05731921269031639</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1261583101993829</v>
+        <v>0.1192013988155693</v>
       </c>
       <c r="C94">
-        <v>-0.03125243036028673</v>
+        <v>-0.02706911770225805</v>
       </c>
       <c r="D94">
-        <v>0.05018982786319506</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.05141109106726291</v>
+      </c>
+      <c r="E94">
+        <v>0.06440261521040565</v>
+      </c>
+      <c r="F94">
+        <v>0.05953037596978254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1263234244079592</v>
+        <v>0.1285386218924023</v>
       </c>
       <c r="C95">
-        <v>-0.01402295454214296</v>
+        <v>-0.008338867505860508</v>
       </c>
       <c r="D95">
-        <v>0.1085890011367451</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1164370479664526</v>
+      </c>
+      <c r="E95">
+        <v>0.01087194788526949</v>
+      </c>
+      <c r="F95">
+        <v>0.03409579692110393</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1723973844647757</v>
+        <v>0.1524443081062692</v>
       </c>
       <c r="C96">
-        <v>0.9793460406439405</v>
+        <v>0.9817347107685646</v>
       </c>
       <c r="D96">
-        <v>-0.03062357570705986</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05134376038459129</v>
+      </c>
+      <c r="E96">
+        <v>0.06420156015839275</v>
+      </c>
+      <c r="F96">
+        <v>0.009320166429945858</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.193948911166462</v>
+        <v>0.1956559227845895</v>
       </c>
       <c r="C97">
-        <v>-0.006956227926833874</v>
+        <v>-0.001757465899364951</v>
       </c>
       <c r="D97">
-        <v>-0.02016025782322052</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01721120940685893</v>
+      </c>
+      <c r="E97">
+        <v>-0.1326563003880563</v>
+      </c>
+      <c r="F97">
+        <v>0.110209997287653</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1894362665989136</v>
+        <v>0.1973389292867384</v>
       </c>
       <c r="C98">
-        <v>-0.01831871620690426</v>
+        <v>-0.01274720028466035</v>
       </c>
       <c r="D98">
-        <v>0.002028967426174374</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.006097375811359501</v>
+      </c>
+      <c r="E98">
+        <v>-0.1259812110949304</v>
+      </c>
+      <c r="F98">
+        <v>-0.05460500441307267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05632100084126188</v>
+        <v>0.05603675986879122</v>
       </c>
       <c r="C99">
-        <v>0.0004163904858413694</v>
+        <v>0.002570863870040317</v>
       </c>
       <c r="D99">
-        <v>0.05314774496133286</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.05489809636355356</v>
+      </c>
+      <c r="E99">
+        <v>0.002825754606070523</v>
+      </c>
+      <c r="F99">
+        <v>0.004090586056828579</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1173369699345602</v>
+        <v>0.1113187216957659</v>
       </c>
       <c r="C100">
-        <v>0.03363721353054412</v>
+        <v>0.04056367920425659</v>
       </c>
       <c r="D100">
-        <v>0.3052754242320402</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.2879054744711187</v>
+      </c>
+      <c r="E100">
+        <v>-0.5823382423094252</v>
+      </c>
+      <c r="F100">
+        <v>-0.6548512063658695</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02614700193872902</v>
+        <v>0.02819149820093927</v>
       </c>
       <c r="C101">
-        <v>-0.01007077522755447</v>
+        <v>-0.009583650295213677</v>
       </c>
       <c r="D101">
-        <v>0.03841776926822087</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03789995079667202</v>
+      </c>
+      <c r="E101">
+        <v>-0.008590641932591233</v>
+      </c>
+      <c r="F101">
+        <v>0.02271391862101288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
